--- a/image/assertion.xlsx
+++ b/image/assertion.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="298">
   <si>
     <t>Path</t>
   </si>
@@ -739,16 +739,16 @@
     <t>Assertion.variableDefinition.variableRole</t>
   </si>
   <si>
-    <t>exposure | measuredVariable</t>
-  </si>
-  <si>
-    <t>exposure | measuredVariable.</t>
+    <t>exposure | referenceExposure | measuredVariable | confounder</t>
+  </si>
+  <si>
+    <t>exposure | referenceExposure | measuredVariable | confounder.</t>
   </si>
   <si>
     <t>The role that the assertion variable plays.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/variable-role|4.1.0</t>
+    <t>http://hl7.org/fhir/ValueSet/variable-role</t>
   </si>
   <si>
     <t>Assertion.variableDefinition.actualDefinition</t>
@@ -809,25 +809,7 @@
     <t>http://hl7.org/fhir/ValueSet/study-type</t>
   </si>
   <si>
-    <t>Assertion.statisticCollection</t>
-  </si>
-  <si>
-    <t>Set of statistics</t>
-  </si>
-  <si>
-    <t>Set of statistics associated with variable.</t>
-  </si>
-  <si>
-    <t>Assertion.statisticCollection.id</t>
-  </si>
-  <si>
-    <t>Assertion.statisticCollection.extension</t>
-  </si>
-  <si>
-    <t>Assertion.statisticCollection.modifierExtension</t>
-  </si>
-  <si>
-    <t>Assertion.statisticCollection.statistic</t>
+    <t>Assertion.statistic</t>
   </si>
   <si>
     <t xml:space="preserve">Statistic
@@ -840,7 +822,7 @@
     <t>The statistic value(s).</t>
   </si>
   <si>
-    <t>Assertion.statisticCollection.distribution</t>
+    <t>Assertion.distribution</t>
   </si>
   <si>
     <t xml:space="preserve">OrderedDistribution
@@ -1089,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM65"/>
+  <dimension ref="A1:AM61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5405,7 +5387,7 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>134</v>
+        <v>218</v>
       </c>
       <c r="X39" t="s" s="2">
         <v>234</v>
@@ -6014,7 +5996,7 @@
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>40</v>
@@ -6026,13 +6008,13 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6089,13 +6071,13 @@
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>40</v>
@@ -6112,7 +6094,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6123,7 +6105,7 @@
         <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>40</v>
@@ -6135,13 +6117,13 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>190</v>
+        <v>261</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6192,13 +6174,13 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>40</v>
@@ -6216,16 +6198,16 @@
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6244,17 +6226,15 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>94</v>
+        <v>264</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -6303,7 +6283,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>196</v>
+        <v>263</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6315,7 +6295,7 @@
         <v>40</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>40</v>
@@ -6327,48 +6307,44 @@
         <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>40</v>
       </c>
@@ -6416,13 +6392,13 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
@@ -6440,16 +6416,16 @@
         <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>90</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6468,15 +6444,17 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>262</v>
+        <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>263</v>
+        <v>94</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -6525,7 +6503,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>261</v>
+        <v>196</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6549,16 +6527,16 @@
         <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6571,22 +6549,26 @@
         <v>40</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>266</v>
+        <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>267</v>
+        <v>199</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6634,7 +6616,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6658,7 +6640,7 @@
         <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51">
@@ -6674,7 +6656,7 @@
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
@@ -6686,7 +6668,7 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>270</v>
@@ -6749,13 +6731,13 @@
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>40</v>
@@ -6795,13 +6777,13 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6852,7 +6834,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -6876,7 +6858,7 @@
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53">
@@ -6885,7 +6867,7 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -6904,17 +6886,15 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>94</v>
+        <v>274</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -6939,13 +6919,13 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>40</v>
+        <v>277</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>40</v>
@@ -6963,7 +6943,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>196</v>
+        <v>273</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -6987,16 +6967,16 @@
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7009,26 +6989,22 @@
         <v>40</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>199</v>
+        <v>279</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7076,7 +7052,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>201</v>
+        <v>278</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7088,7 +7064,7 @@
         <v>40</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>40</v>
@@ -7100,12 +7076,12 @@
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7131,10 +7107,10 @@
         <v>119</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>276</v>
+        <v>190</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>277</v>
+        <v>191</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7185,7 +7161,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>275</v>
+        <v>192</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7209,23 +7185,23 @@
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>40</v>
@@ -7237,15 +7213,17 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -7294,13 +7272,13 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>278</v>
+        <v>196</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>40</v>
@@ -7318,16 +7296,16 @@
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7340,22 +7318,26 @@
         <v>40</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>215</v>
+        <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>280</v>
+        <v>199</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7379,13 +7361,13 @@
         <v>40</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>282</v>
+        <v>40</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>40</v>
@@ -7403,7 +7385,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>279</v>
+        <v>201</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7427,7 +7409,7 @@
         <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58">
@@ -7443,7 +7425,7 @@
         <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>40</v>
@@ -7455,7 +7437,7 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>285</v>
@@ -7518,13 +7500,13 @@
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>40</v>
@@ -7564,13 +7546,13 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>191</v>
+        <v>289</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7621,7 +7603,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>192</v>
+        <v>287</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7645,16 +7627,16 @@
         <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -7673,17 +7655,15 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -7708,13 +7688,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>40</v>
+        <v>291</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>40</v>
+        <v>292</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
@@ -7732,7 +7712,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>196</v>
+        <v>290</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -7756,16 +7736,16 @@
         <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -7778,26 +7758,22 @@
         <v>40</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>199</v>
+        <v>294</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>40</v>
       </c>
@@ -7821,13 +7797,13 @@
         <v>40</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>40</v>
+        <v>296</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>40</v>
+        <v>297</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>40</v>
@@ -7845,7 +7821,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>201</v>
+        <v>293</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -7869,442 +7845,6 @@
         <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM65" t="s" s="2">
         <v>40</v>
       </c>
     </row>

--- a/image/assertion.xlsx
+++ b/image/assertion.xlsx
@@ -646,7 +646,7 @@
     <t>BackboneElement.modifierExtension</t>
   </si>
   <si>
-    <t>Assertion.referentGroup.descripton</t>
+    <t>Assertion.referentGroup.description</t>
   </si>
   <si>
     <t>Textual description of referent group</t>
